--- a/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-procedure.xlsx
@@ -562,7 +562,7 @@
     <t>Part of referenced event</t>
   </si>
   <si>
-    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>A larger event of which this particular procedure is a component or step.【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).
@@ -1463,7 +1463,7 @@
     <t>Kind of change to device</t>
   </si>
   <si>
-    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中にデバイスに起こった変化の種類。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceActionCodes_VS</t>
@@ -1482,7 +1482,7 @@
     <t>Device that was changed</t>
   </si>
   <si>
-    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/procedure.htmlを参照</t>
+    <t>Procedure中に操作（変更）されたデバイス。【JP-Core仕様】https://www.hl7.org/fhir/R4/procedure.htmlを参照</t>
   </si>
   <si>
     <t>.participation[typeCode=DEV].role[classCode=SDLOC]</t>
